--- a/FYP - Cypress/Checkout Test Cases.xlsx
+++ b/FYP - Cypress/Checkout Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w10\Desktop\Google Drive\Automation Trainings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\git clone\Automation\FYP - Cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C8FE8B-5344-4544-AEAD-52C848FBF2AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27128B9-8507-4B57-97CA-1AF754360D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{36F0BA2D-DC57-4C3F-AF04-B4218812445A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{36F0BA2D-DC57-4C3F-AF04-B4218812445A}"/>
   </bookViews>
   <sheets>
     <sheet name="Checkout TC # 01" sheetId="2" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E92367-4197-4752-A14B-2D7B0FBCA9E1}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921A73E4-3B0F-473F-9EC4-17628B118E70}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/FYP - Cypress/Checkout Test Cases.xlsx
+++ b/FYP - Cypress/Checkout Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w10\Desktop\Google Drive\Automation Trainings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git clone\Automation\FYP - Cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C8FE8B-5344-4544-AEAD-52C848FBF2AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD0807C-21BF-456E-9225-0D4135714211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{36F0BA2D-DC57-4C3F-AF04-B4218812445A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{36F0BA2D-DC57-4C3F-AF04-B4218812445A}"/>
   </bookViews>
   <sheets>
     <sheet name="Checkout TC # 01" sheetId="2" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E92367-4197-4752-A14B-2D7B0FBCA9E1}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
